--- a/FI/亿多得-GC.xlsx
+++ b/FI/亿多得-GC.xlsx
@@ -444,6 +444,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="590550" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,12 +733,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
@@ -810,7 +840,7 @@
       </c>
       <c r="P5" s="5" t="inlineStr">
         <is>
-          <t>订单日期：2024-06-23</t>
+          <t>订单日期：2024-06-30</t>
         </is>
       </c>
     </row>
@@ -822,7 +852,7 @@
       </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
-          <t>交货期：2024-08-22</t>
+          <t>交货期：2024-08-29</t>
         </is>
       </c>
     </row>
@@ -907,37 +937,37 @@
       <c r="C10" s="36" t="n"/>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O/S</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>40/8     XS</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>42/10     S</t>
         </is>
       </c>
       <c r="G10" s="8" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>44/12   M</t>
         </is>
       </c>
       <c r="H10" s="8" t="inlineStr">
         <is>
-          <t>1X</t>
+          <t>46/14    L</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr">
         <is>
-          <t>S/M</t>
+          <t>48/16   XL</t>
         </is>
       </c>
       <c r="J10" s="8" t="inlineStr">
         <is>
-          <t>L/XL</t>
+          <t>50/18XXL</t>
         </is>
       </c>
       <c r="K10" s="8" t="inlineStr">
@@ -960,10 +990,10 @@
       <c r="P10" s="36" t="n"/>
       <c r="Q10" s="36" t="n"/>
     </row>
-    <row r="11" ht="45" customHeight="1">
+    <row r="11" ht="70.05" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>SHIGO</t>
+          <t>NF2409ZZ090-17</t>
         </is>
       </c>
       <c r="B11" s="21" t="n"/>
@@ -972,28 +1002,28 @@
         <v/>
       </c>
       <c r="E11" s="21" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="F11" s="21" t="n">
-        <v/>
+        <v>14</v>
       </c>
       <c r="G11" s="21" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="I11" s="21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J11" s="21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K11" s="21" t="n"/>
       <c r="L11" s="21" t="n"/>
       <c r="M11" s="21" t="inlineStr">
         <is>
-          <t>MULTI</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="N11" s="21" t="n">
@@ -1009,137 +1039,88 @@
       </c>
       <c r="Q11" s="38" t="n"/>
     </row>
-    <row r="12" ht="45" customHeight="1">
-      <c r="A12" s="36" t="n"/>
-      <c r="B12" s="36" t="n"/>
-      <c r="C12" s="36" t="n"/>
-      <c r="D12" s="21" t="n">
+    <row r="12" ht="33" customHeight="1">
+      <c r="A12" s="10" t="n"/>
+      <c r="B12" s="10" t="n"/>
+      <c r="C12" s="10" t="n"/>
+      <c r="D12" s="10" t="n"/>
+      <c r="E12" s="10" t="n"/>
+      <c r="F12" s="10" t="n"/>
+      <c r="G12" s="10" t="n"/>
+      <c r="H12" s="10" t="n"/>
+      <c r="I12" s="10" t="n"/>
+      <c r="J12" s="10" t="n"/>
+      <c r="K12" s="10" t="n"/>
+      <c r="L12" s="10" t="n"/>
+      <c r="M12" s="10" t="n"/>
+      <c r="N12" s="10" t="n"/>
+      <c r="O12" s="39">
+        <f>SUM(O11:O11)</f>
         <v/>
       </c>
-      <c r="E12" s="21" t="n">
+      <c r="P12" s="40">
+        <f>SUM(P11:P11)</f>
         <v/>
       </c>
-      <c r="F12" s="21" t="n">
-        <v/>
-      </c>
-      <c r="G12" s="21" t="n">
-        <v/>
-      </c>
-      <c r="H12" s="21" t="n">
-        <v/>
-      </c>
-      <c r="I12" s="21" t="n">
-        <v>40</v>
-      </c>
-      <c r="J12" s="21" t="n">
-        <v>60</v>
-      </c>
-      <c r="K12" s="21" t="n"/>
-      <c r="L12" s="21" t="n"/>
-      <c r="M12" s="21" t="inlineStr">
-        <is>
-          <t>MULTI</t>
-        </is>
-      </c>
-      <c r="N12" s="21" t="n">
-        <v>300</v>
-      </c>
-      <c r="O12" s="37">
-        <f>SUM(D12:J12)</f>
-        <v/>
-      </c>
-      <c r="P12" s="38">
-        <f>O12*N12</f>
-        <v/>
-      </c>
-      <c r="Q12" s="38" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="10" t="n"/>
-      <c r="C13" s="10" t="n"/>
-      <c r="D13" s="10" t="n"/>
-      <c r="E13" s="10" t="n"/>
-      <c r="F13" s="10" t="n"/>
-      <c r="G13" s="10" t="n"/>
-      <c r="H13" s="10" t="n"/>
-      <c r="I13" s="10" t="n"/>
-      <c r="J13" s="10" t="n"/>
-      <c r="K13" s="10" t="n"/>
-      <c r="L13" s="10" t="n"/>
-      <c r="M13" s="10" t="n"/>
-      <c r="N13" s="10" t="n"/>
-      <c r="O13" s="39">
-        <f>SUM(O11:O12)</f>
-        <v/>
-      </c>
-      <c r="P13" s="40">
-        <f>SUM(P11:P12)</f>
-        <v/>
-      </c>
-      <c r="Q13" s="41" t="n"/>
-    </row>
-    <row r="14"/>
-    <row r="15" ht="15.6" customHeight="1"/>
+      <c r="Q12" s="41" t="n"/>
+    </row>
+    <row r="15" ht="15.6" customHeight="1">
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>特殊说明：</t>
+        </is>
+      </c>
+    </row>
     <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>特殊说明：</t>
+      <c r="A16" s="18" t="inlineStr">
+        <is>
+          <t>1）增减产数量：</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="18" t="inlineStr">
         <is>
-          <t>1）增减产数量：</t>
+          <t>2）包装要求：</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="inlineStr">
         <is>
-          <t>2）包装要求：</t>
+          <t>3）结款时间：</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="18" t="inlineStr">
         <is>
-          <t>3）结款时间：</t>
+          <t>4）质量要求：</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="18" t="inlineStr">
         <is>
-          <t>4）质量要求：</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="18" t="inlineStr">
-        <is>
           <t>5）其他要求：</t>
         </is>
       </c>
-      <c r="T21" s="20" t="n"/>
-      <c r="U21" s="20" t="n"/>
+      <c r="T20" s="20" t="n"/>
+      <c r="U20" s="20" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="8">
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="D9:L9"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="67" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>